--- a/data/pca/factorExposure/factorExposure_2009-09-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01725242437223355</v>
+        <v>0.01664695535723933</v>
       </c>
       <c r="C2">
-        <v>0.001676476174061168</v>
+        <v>0.0008622738759668511</v>
       </c>
       <c r="D2">
-        <v>0.0008398435455159632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008908286986098687</v>
+      </c>
+      <c r="E2">
+        <v>0.001625529569463162</v>
+      </c>
+      <c r="F2">
+        <v>0.01236692260015207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09740246998724199</v>
+        <v>0.09384123234211933</v>
       </c>
       <c r="C4">
-        <v>0.02135679474672964</v>
+        <v>0.01444142416705717</v>
       </c>
       <c r="D4">
-        <v>-0.06715120973789721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08409831760440056</v>
+      </c>
+      <c r="E4">
+        <v>0.02860419643788405</v>
+      </c>
+      <c r="F4">
+        <v>-0.03242654216210043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1449866128064117</v>
+        <v>0.1589591024352317</v>
       </c>
       <c r="C6">
-        <v>0.02642938115846</v>
+        <v>0.02655120997483731</v>
       </c>
       <c r="D6">
-        <v>0.02086233333205316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02336166219071301</v>
+      </c>
+      <c r="E6">
+        <v>0.01067457556537747</v>
+      </c>
+      <c r="F6">
+        <v>-0.04312938063299283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06617719938909623</v>
+        <v>0.06356420572864815</v>
       </c>
       <c r="C7">
-        <v>0.003683830546325054</v>
+        <v>-0.001662371962696533</v>
       </c>
       <c r="D7">
-        <v>-0.0363487168547107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05245468675916901</v>
+      </c>
+      <c r="E7">
+        <v>0.01201117190236328</v>
+      </c>
+      <c r="F7">
+        <v>-0.0474993100519665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06509392634467</v>
+        <v>0.05755649404295853</v>
       </c>
       <c r="C8">
-        <v>-0.009962726715445033</v>
+        <v>-0.01328746663299661</v>
       </c>
       <c r="D8">
-        <v>-0.01657440304834738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03233650706885859</v>
+      </c>
+      <c r="E8">
+        <v>0.01798741503323176</v>
+      </c>
+      <c r="F8">
+        <v>0.0267635763613427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07693700817188241</v>
+        <v>0.07083783154793989</v>
       </c>
       <c r="C9">
-        <v>0.01798407363674611</v>
+        <v>0.01018585846485878</v>
       </c>
       <c r="D9">
-        <v>-0.06682132207409848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0869929918939191</v>
+      </c>
+      <c r="E9">
+        <v>0.02323142551794852</v>
+      </c>
+      <c r="F9">
+        <v>-0.04791732690933635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08412966450415067</v>
+        <v>0.0915814099320916</v>
       </c>
       <c r="C10">
-        <v>0.009027391854976341</v>
+        <v>0.02101263261598097</v>
       </c>
       <c r="D10">
-        <v>0.1695684841688243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1642758153001576</v>
+      </c>
+      <c r="E10">
+        <v>-0.03276791037297399</v>
+      </c>
+      <c r="F10">
+        <v>0.05504477525360853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09402708007451566</v>
+        <v>0.08804595785940218</v>
       </c>
       <c r="C11">
-        <v>0.0184044809247442</v>
+        <v>0.01027537008674127</v>
       </c>
       <c r="D11">
-        <v>-0.09812762851965783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170858420704737</v>
+      </c>
+      <c r="E11">
+        <v>0.04566138451681256</v>
+      </c>
+      <c r="F11">
+        <v>-0.02315667744071051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1011364109397916</v>
+        <v>0.0919522969589497</v>
       </c>
       <c r="C12">
-        <v>0.01675282753507669</v>
+        <v>0.007644507776447114</v>
       </c>
       <c r="D12">
-        <v>-0.09766441837396254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321238705981432</v>
+      </c>
+      <c r="E12">
+        <v>0.04569709243859753</v>
+      </c>
+      <c r="F12">
+        <v>-0.0295182166284236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04329960820084525</v>
+        <v>0.04139747992284432</v>
       </c>
       <c r="C13">
-        <v>0.006351354642450684</v>
+        <v>0.00234722144453611</v>
       </c>
       <c r="D13">
-        <v>-0.03343612079143481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05333305870153617</v>
+      </c>
+      <c r="E13">
+        <v>-0.00432855455657389</v>
+      </c>
+      <c r="F13">
+        <v>-0.002797800705349797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02235569631536213</v>
+        <v>0.02394093511621682</v>
       </c>
       <c r="C14">
-        <v>0.01543204916526365</v>
+        <v>0.01377374560382456</v>
       </c>
       <c r="D14">
-        <v>-0.02447765348279494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03286381492391702</v>
+      </c>
+      <c r="E14">
+        <v>0.01837320058057218</v>
+      </c>
+      <c r="F14">
+        <v>-0.01385141787192883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0361109621196233</v>
+        <v>0.03292403786651586</v>
       </c>
       <c r="C15">
-        <v>0.008207030823176758</v>
+        <v>0.004626248072453859</v>
       </c>
       <c r="D15">
-        <v>-0.02463779278525455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04510576427671206</v>
+      </c>
+      <c r="E15">
+        <v>0.006019716613731796</v>
+      </c>
+      <c r="F15">
+        <v>-0.02479196939355411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08163527981633761</v>
+        <v>0.07412985590333186</v>
       </c>
       <c r="C16">
-        <v>0.009640582340865029</v>
+        <v>0.0008260837389277924</v>
       </c>
       <c r="D16">
-        <v>-0.09976299136185633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274833575899339</v>
+      </c>
+      <c r="E16">
+        <v>0.06004638594117419</v>
+      </c>
+      <c r="F16">
+        <v>-0.02730935981885202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000696663144849431</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001762260808337587</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001225621513293763</v>
+      </c>
+      <c r="E17">
+        <v>0.0006959411105845421</v>
+      </c>
+      <c r="F17">
+        <v>0.001240551718338966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.006823321259579402</v>
+        <v>0.03624894151669187</v>
       </c>
       <c r="C18">
-        <v>-0.001292505971216635</v>
+        <v>-0.003001826384195973</v>
       </c>
       <c r="D18">
-        <v>-0.009471802015886632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01622918444881866</v>
+      </c>
+      <c r="E18">
+        <v>-0.008411217094663477</v>
+      </c>
+      <c r="F18">
+        <v>0.009497503751123043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06328149178615089</v>
+        <v>0.06172150749162448</v>
       </c>
       <c r="C20">
-        <v>0.007572284552888741</v>
+        <v>-5.896368933525013e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04513386395154855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07844998748167133</v>
+      </c>
+      <c r="E20">
+        <v>0.05605189989757168</v>
+      </c>
+      <c r="F20">
+        <v>-0.02620841717692263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04342444347315291</v>
+        <v>0.04066025864038855</v>
       </c>
       <c r="C21">
-        <v>0.010684349632006</v>
+        <v>0.006387041949197333</v>
       </c>
       <c r="D21">
-        <v>-0.01308206585706789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03801678905242526</v>
+      </c>
+      <c r="E21">
+        <v>-0.00163885508884616</v>
+      </c>
+      <c r="F21">
+        <v>0.02383539754070165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04145528878416547</v>
+        <v>0.04273759164538555</v>
       </c>
       <c r="C22">
-        <v>0.0002104292677115706</v>
+        <v>9.525366412679729e-05</v>
       </c>
       <c r="D22">
-        <v>0.01058310493269809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006401779130379637</v>
+      </c>
+      <c r="E22">
+        <v>0.03891218972808002</v>
+      </c>
+      <c r="F22">
+        <v>0.03685703482141862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0414170424833343</v>
+        <v>0.04271331473694188</v>
       </c>
       <c r="C23">
-        <v>0.0002013135381604531</v>
+        <v>8.673800695355342e-05</v>
       </c>
       <c r="D23">
-        <v>0.01055804387364338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006417412479678484</v>
+      </c>
+      <c r="E23">
+        <v>0.03909581262759954</v>
+      </c>
+      <c r="F23">
+        <v>0.03681948472699333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08452799929891937</v>
+        <v>0.0798968081483374</v>
       </c>
       <c r="C24">
-        <v>0.009960195539432662</v>
+        <v>0.00150002231829326</v>
       </c>
       <c r="D24">
-        <v>-0.1059246467320313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207478488332543</v>
+      </c>
+      <c r="E24">
+        <v>0.04835335610271572</v>
+      </c>
+      <c r="F24">
+        <v>-0.02801724894448466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0915254376478974</v>
+        <v>0.08525242067351257</v>
       </c>
       <c r="C25">
-        <v>0.01216665637497825</v>
+        <v>0.004237587473165125</v>
       </c>
       <c r="D25">
-        <v>-0.08881772176627094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096138361182079</v>
+      </c>
+      <c r="E25">
+        <v>0.03176975811241677</v>
+      </c>
+      <c r="F25">
+        <v>-0.02775644005096283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.058855735492279</v>
+        <v>0.0589037588930518</v>
       </c>
       <c r="C26">
-        <v>0.01851966621848052</v>
+        <v>0.01435856306209565</v>
       </c>
       <c r="D26">
-        <v>-0.01346003943284987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04111958311968895</v>
+      </c>
+      <c r="E26">
+        <v>0.02815273182935333</v>
+      </c>
+      <c r="F26">
+        <v>0.007243394520053267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1319294294925567</v>
+        <v>0.1424914102462121</v>
       </c>
       <c r="C28">
-        <v>0.005860502700493597</v>
+        <v>0.02246857682102219</v>
       </c>
       <c r="D28">
-        <v>0.2806396650544112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2610672709208177</v>
+      </c>
+      <c r="E28">
+        <v>-0.06725212487688169</v>
+      </c>
+      <c r="F28">
+        <v>-0.007933557269656586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02755825263305109</v>
+        <v>0.02855032618204683</v>
       </c>
       <c r="C29">
-        <v>0.01015660945424016</v>
+        <v>0.008662537375779511</v>
       </c>
       <c r="D29">
-        <v>-0.01925689065728967</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03119640593796372</v>
+      </c>
+      <c r="E29">
+        <v>0.01354008876055628</v>
+      </c>
+      <c r="F29">
+        <v>0.01294407130144749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07070169378955811</v>
+        <v>0.05850613513608326</v>
       </c>
       <c r="C30">
-        <v>0.01020594915352589</v>
+        <v>0.002403939539947839</v>
       </c>
       <c r="D30">
-        <v>-0.07211865784642289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08954938402392437</v>
+      </c>
+      <c r="E30">
+        <v>0.01543515209858732</v>
+      </c>
+      <c r="F30">
+        <v>-0.07776046301864249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05167081374687345</v>
+        <v>0.05099246210619913</v>
       </c>
       <c r="C31">
-        <v>0.01685748020895389</v>
+        <v>0.0154507230839544</v>
       </c>
       <c r="D31">
-        <v>-0.02320406218790734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02521073508084866</v>
+      </c>
+      <c r="E31">
+        <v>0.02875279262329097</v>
+      </c>
+      <c r="F31">
+        <v>0.001119816779660761</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04500791093043453</v>
+        <v>0.05109780400957527</v>
       </c>
       <c r="C32">
-        <v>0.001996999555715221</v>
+        <v>-0.001932512452690075</v>
       </c>
       <c r="D32">
-        <v>-0.02064033581311802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03650763605408221</v>
+      </c>
+      <c r="E32">
+        <v>0.03418575398739922</v>
+      </c>
+      <c r="F32">
+        <v>-0.003602589036222213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09533887229949271</v>
+        <v>0.08852725669382357</v>
       </c>
       <c r="C33">
-        <v>0.01465074660406254</v>
+        <v>0.006504841657820449</v>
       </c>
       <c r="D33">
-        <v>-0.0806356595608726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.10168262034177</v>
+      </c>
+      <c r="E33">
+        <v>0.04289014716245743</v>
+      </c>
+      <c r="F33">
+        <v>-0.03821664197639145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.075384253715182</v>
+        <v>0.0678157688091599</v>
       </c>
       <c r="C34">
-        <v>0.0167077494771683</v>
+        <v>0.009965553857429747</v>
       </c>
       <c r="D34">
-        <v>-0.09047815337533273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097624913731056</v>
+      </c>
+      <c r="E34">
+        <v>0.03415097362618939</v>
+      </c>
+      <c r="F34">
+        <v>-0.03400122151587143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02350710050112931</v>
+        <v>0.02526572889025035</v>
       </c>
       <c r="C35">
-        <v>0.002638538689500224</v>
+        <v>0.002516040999701284</v>
       </c>
       <c r="D35">
-        <v>-0.00467174701288338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01147864297750931</v>
+      </c>
+      <c r="E35">
+        <v>0.0119521169934547</v>
+      </c>
+      <c r="F35">
+        <v>-0.001204461811261533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0226358050673382</v>
+        <v>0.02752060835633429</v>
       </c>
       <c r="C36">
-        <v>0.009031139710018956</v>
+        <v>0.006773564297668382</v>
       </c>
       <c r="D36">
-        <v>-0.02931406901115702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04007464697968643</v>
+      </c>
+      <c r="E36">
+        <v>0.01662677619117682</v>
+      </c>
+      <c r="F36">
+        <v>-0.01567605674712005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004707048195860998</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000626582605814478</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002268904719329441</v>
+      </c>
+      <c r="E37">
+        <v>-0.001108237887657741</v>
+      </c>
+      <c r="F37">
+        <v>-1.714898364869112e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001566176479363384</v>
+        <v>0.000174761545644778</v>
       </c>
       <c r="C38">
-        <v>5.83180547748519e-05</v>
+        <v>7.780234984287472e-05</v>
       </c>
       <c r="D38">
-        <v>0.001211053262635223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.000910684576611093</v>
+      </c>
+      <c r="E38">
+        <v>-0.0006746576588047818</v>
+      </c>
+      <c r="F38">
+        <v>-0.000399126304986861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1195136524260043</v>
+        <v>0.1040134899396649</v>
       </c>
       <c r="C39">
-        <v>0.02583806843107047</v>
+        <v>0.01538724669739688</v>
       </c>
       <c r="D39">
-        <v>-0.1413110333498674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1548536274240467</v>
+      </c>
+      <c r="E39">
+        <v>0.05900390217004522</v>
+      </c>
+      <c r="F39">
+        <v>-0.03026765369873844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03610098193630332</v>
+        <v>0.04123052434887116</v>
       </c>
       <c r="C40">
-        <v>0.00993923130273359</v>
+        <v>0.00705742688780397</v>
       </c>
       <c r="D40">
-        <v>0.005163087452998619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03152105284965025</v>
+      </c>
+      <c r="E40">
+        <v>0.002168983855904817</v>
+      </c>
+      <c r="F40">
+        <v>0.01618200214317183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02480245397229853</v>
+        <v>0.0278477941089866</v>
       </c>
       <c r="C41">
-        <v>0.007721273860220248</v>
+        <v>0.0068351176363817</v>
       </c>
       <c r="D41">
-        <v>-0.00655681600794567</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01101365068297618</v>
+      </c>
+      <c r="E41">
+        <v>0.0124986180887638</v>
+      </c>
+      <c r="F41">
+        <v>0.005882390717126709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04035154326314828</v>
+        <v>0.04061102099712394</v>
       </c>
       <c r="C43">
-        <v>0.008623424356912868</v>
+        <v>0.007021992800048008</v>
       </c>
       <c r="D43">
-        <v>-0.009105135373792617</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0190039868831445</v>
+      </c>
+      <c r="E43">
+        <v>0.02524867777199343</v>
+      </c>
+      <c r="F43">
+        <v>0.01225749933769446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08053393375057399</v>
+        <v>0.07914950803127165</v>
       </c>
       <c r="C44">
-        <v>0.02813028466062614</v>
+        <v>0.01910880223502539</v>
       </c>
       <c r="D44">
-        <v>-0.07243237406367362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0975792393038445</v>
+      </c>
+      <c r="E44">
+        <v>0.0611976836834863</v>
+      </c>
+      <c r="F44">
+        <v>-0.1573644476384327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01875212851744841</v>
+        <v>0.02311477955942844</v>
       </c>
       <c r="C46">
-        <v>0.003930451307726931</v>
+        <v>0.003213426788869783</v>
       </c>
       <c r="D46">
-        <v>0.0006806982297533807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01350697328339201</v>
+      </c>
+      <c r="E46">
+        <v>0.02595100777310077</v>
+      </c>
+      <c r="F46">
+        <v>0.005457288286802887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05178005539820794</v>
+        <v>0.052708311289483</v>
       </c>
       <c r="C47">
-        <v>0.00454811998761021</v>
+        <v>0.003567152207683318</v>
       </c>
       <c r="D47">
-        <v>-0.002561809712007968</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01249752292766097</v>
+      </c>
+      <c r="E47">
+        <v>0.02394667179489212</v>
+      </c>
+      <c r="F47">
+        <v>0.03159858194886452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04642416409416699</v>
+        <v>0.05036318129001364</v>
       </c>
       <c r="C48">
-        <v>0.006202282489876386</v>
+        <v>0.002160327158491928</v>
       </c>
       <c r="D48">
-        <v>-0.03556914404520729</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05043306536411699</v>
+      </c>
+      <c r="E48">
+        <v>-0.00475495180900022</v>
+      </c>
+      <c r="F48">
+        <v>-0.009930014801223939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2022325553659341</v>
+        <v>0.2001528144582347</v>
       </c>
       <c r="C49">
-        <v>0.01851578695856748</v>
+        <v>0.01888013407455813</v>
       </c>
       <c r="D49">
-        <v>0.00627157667484557</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006905291291538156</v>
+      </c>
+      <c r="E49">
+        <v>0.03003716953406501</v>
+      </c>
+      <c r="F49">
+        <v>-0.03742804107555688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05130323895279935</v>
+        <v>0.05137623688151674</v>
       </c>
       <c r="C50">
-        <v>0.01307383506481584</v>
+        <v>0.01118596672016259</v>
       </c>
       <c r="D50">
-        <v>-0.02103615380136105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02447064510742015</v>
+      </c>
+      <c r="E50">
+        <v>0.03008857906240283</v>
+      </c>
+      <c r="F50">
+        <v>-0.009625860101891169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1564572800364029</v>
+        <v>0.1486026892742597</v>
       </c>
       <c r="C52">
-        <v>0.01871769201251992</v>
+        <v>0.01724149347210531</v>
       </c>
       <c r="D52">
-        <v>-0.05819668092760166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04258392473325744</v>
+      </c>
+      <c r="E52">
+        <v>0.02098124409829569</v>
+      </c>
+      <c r="F52">
+        <v>-0.0434828103257314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1708764299488683</v>
+        <v>0.1712486549051213</v>
       </c>
       <c r="C53">
-        <v>0.01761799318639548</v>
+        <v>0.01976806312859208</v>
       </c>
       <c r="D53">
-        <v>-0.03035334672173586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005396585709215048</v>
+      </c>
+      <c r="E53">
+        <v>0.02926821539592317</v>
+      </c>
+      <c r="F53">
+        <v>-0.07477116974255585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02118629517512773</v>
+        <v>0.02040651108100221</v>
       </c>
       <c r="C54">
-        <v>0.01288138015828433</v>
+        <v>0.01120364322498742</v>
       </c>
       <c r="D54">
-        <v>-0.02349166425327605</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03459998477661811</v>
+      </c>
+      <c r="E54">
+        <v>0.02208903668834784</v>
+      </c>
+      <c r="F54">
+        <v>0.005582346993250559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1165134113997724</v>
+        <v>0.1147508550978244</v>
       </c>
       <c r="C55">
-        <v>0.01623080247281128</v>
+        <v>0.017483108276302</v>
       </c>
       <c r="D55">
-        <v>-0.02438915387914316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007342854708542393</v>
+      </c>
+      <c r="E55">
+        <v>0.02407615097952559</v>
+      </c>
+      <c r="F55">
+        <v>-0.04783158157207691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1783619871319286</v>
+        <v>0.1768259144665888</v>
       </c>
       <c r="C56">
-        <v>0.01549674118356453</v>
+        <v>0.01758783161650497</v>
       </c>
       <c r="D56">
-        <v>-0.01678255644580905</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001629036479675562</v>
+      </c>
+      <c r="E56">
+        <v>0.03385526239856494</v>
+      </c>
+      <c r="F56">
+        <v>-0.0526716186393336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.045114024808552</v>
+        <v>0.04494290302659257</v>
       </c>
       <c r="C58">
-        <v>0.006918445884843506</v>
+        <v>-0.0004540796442187532</v>
       </c>
       <c r="D58">
-        <v>-0.0501686725346516</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07209205276650282</v>
+      </c>
+      <c r="E58">
+        <v>0.03238999846702833</v>
+      </c>
+      <c r="F58">
+        <v>0.03888822688938963</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1647343281772245</v>
+        <v>0.1680777320030913</v>
       </c>
       <c r="C59">
-        <v>0.007349642483010173</v>
+        <v>0.0226227718571193</v>
       </c>
       <c r="D59">
-        <v>0.2258202427282376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2168645651978872</v>
+      </c>
+      <c r="E59">
+        <v>-0.04526308674212619</v>
+      </c>
+      <c r="F59">
+        <v>0.03628600589098246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2402815147985782</v>
+        <v>0.2318403615814834</v>
       </c>
       <c r="C60">
-        <v>-0.0007481778859626231</v>
+        <v>-0.002245850902002291</v>
       </c>
       <c r="D60">
-        <v>-0.0597702495641345</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04131471780134331</v>
+      </c>
+      <c r="E60">
+        <v>0.008716142068013214</v>
+      </c>
+      <c r="F60">
+        <v>0.005169671323599551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09314079159805165</v>
+        <v>0.07998632399979071</v>
       </c>
       <c r="C61">
-        <v>0.0188550018071189</v>
+        <v>0.01102731387331492</v>
       </c>
       <c r="D61">
-        <v>-0.09785691977185895</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180397031613916</v>
+      </c>
+      <c r="E61">
+        <v>0.03880878944067175</v>
+      </c>
+      <c r="F61">
+        <v>-0.01411124881301893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1725870791787465</v>
+        <v>0.1695638117310713</v>
       </c>
       <c r="C62">
-        <v>0.01940775554772923</v>
+        <v>0.02064840871597362</v>
       </c>
       <c r="D62">
-        <v>-0.0152186369727339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005681037560458077</v>
+      </c>
+      <c r="E62">
+        <v>0.03367734472525454</v>
+      </c>
+      <c r="F62">
+        <v>-0.03611918091266733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04666376607679953</v>
+        <v>0.04551976568084863</v>
       </c>
       <c r="C63">
-        <v>0.006619823668987113</v>
+        <v>0.001587541265977932</v>
       </c>
       <c r="D63">
-        <v>-0.04275187666279719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05941744373993409</v>
+      </c>
+      <c r="E63">
+        <v>0.02318587602927265</v>
+      </c>
+      <c r="F63">
+        <v>-0.003405124447930507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1071611509392422</v>
+        <v>0.1105528253590054</v>
       </c>
       <c r="C64">
-        <v>0.01517092588815503</v>
+        <v>0.01138985845596808</v>
       </c>
       <c r="D64">
-        <v>-0.0244343142527754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04352732545424756</v>
+      </c>
+      <c r="E64">
+        <v>0.02254983316623539</v>
+      </c>
+      <c r="F64">
+        <v>-0.02472714673526229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1375336059159217</v>
+        <v>0.1505590768115765</v>
       </c>
       <c r="C65">
-        <v>0.03172859765441034</v>
+        <v>0.0340601444756146</v>
       </c>
       <c r="D65">
-        <v>0.0426068927918543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04379796829823519</v>
+      </c>
+      <c r="E65">
+        <v>0.006555980104877092</v>
+      </c>
+      <c r="F65">
+        <v>-0.03801748886147926</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1453383703867889</v>
+        <v>0.1234159902025066</v>
       </c>
       <c r="C66">
-        <v>0.02276327732032495</v>
+        <v>0.01324751703484682</v>
       </c>
       <c r="D66">
-        <v>-0.1234670597175227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1436063871312427</v>
+      </c>
+      <c r="E66">
+        <v>0.06518528367991293</v>
+      </c>
+      <c r="F66">
+        <v>-0.03442002456909857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06164188412969798</v>
+        <v>0.05756062950090402</v>
       </c>
       <c r="C67">
-        <v>0.006298830473262808</v>
+        <v>0.002815157056295519</v>
       </c>
       <c r="D67">
-        <v>-0.05524701406003311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05558831807482409</v>
+      </c>
+      <c r="E67">
+        <v>0.01658126144483546</v>
+      </c>
+      <c r="F67">
+        <v>0.03147166516282444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1020092167795387</v>
+        <v>0.1167256188389372</v>
       </c>
       <c r="C68">
-        <v>0.0157862339098484</v>
+        <v>0.03321365538217277</v>
       </c>
       <c r="D68">
-        <v>0.2750728386621294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611196652211076</v>
+      </c>
+      <c r="E68">
+        <v>-0.08723565680403038</v>
+      </c>
+      <c r="F68">
+        <v>-0.002999771625258284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04160299880002787</v>
+        <v>0.03918665404110414</v>
       </c>
       <c r="C69">
-        <v>0.0009994239320271657</v>
+        <v>0.001182303744378187</v>
       </c>
       <c r="D69">
-        <v>-0.01164618774534876</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008698461645551242</v>
+      </c>
+      <c r="E69">
+        <v>0.0243541646959327</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006154136074696901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06547939650289589</v>
+        <v>0.06677415701416642</v>
       </c>
       <c r="C70">
-        <v>-0.02344973088593519</v>
+        <v>-0.0274201089092407</v>
       </c>
       <c r="D70">
-        <v>0.02504452410010103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02432359542644221</v>
+      </c>
+      <c r="E70">
+        <v>-0.03218882572458166</v>
+      </c>
+      <c r="F70">
+        <v>0.1861855476514583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1192897273921369</v>
+        <v>0.136499275681068</v>
       </c>
       <c r="C71">
-        <v>0.0194383439362751</v>
+        <v>0.03753771674557471</v>
       </c>
       <c r="D71">
-        <v>0.2933631865254375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723481849278687</v>
+      </c>
+      <c r="E71">
+        <v>-0.09747380521877615</v>
+      </c>
+      <c r="F71">
+        <v>-0.008667989550775097</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1375348720437531</v>
+        <v>0.1427104643522198</v>
       </c>
       <c r="C72">
-        <v>0.02629805259477001</v>
+        <v>0.02719407626034438</v>
       </c>
       <c r="D72">
-        <v>-0.006207598845506864</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003766244550121344</v>
+      </c>
+      <c r="E72">
+        <v>0.03665115774472019</v>
+      </c>
+      <c r="F72">
+        <v>-0.03252923826437976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2046547227496328</v>
+        <v>0.2040336440850393</v>
       </c>
       <c r="C73">
-        <v>0.01434580420594116</v>
+        <v>0.01290829602576198</v>
       </c>
       <c r="D73">
-        <v>-0.03037426571145426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01665937955414054</v>
+      </c>
+      <c r="E73">
+        <v>0.06240590114638914</v>
+      </c>
+      <c r="F73">
+        <v>-0.03781485042693006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09100962154040761</v>
+        <v>0.09464719467833881</v>
       </c>
       <c r="C74">
-        <v>0.01256311974677624</v>
+        <v>0.01333412255077561</v>
       </c>
       <c r="D74">
-        <v>-0.03298330292240284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01699550281054761</v>
+      </c>
+      <c r="E74">
+        <v>0.04403616319127389</v>
+      </c>
+      <c r="F74">
+        <v>-0.05817870352599341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1347722986355945</v>
+        <v>0.127519081089814</v>
       </c>
       <c r="C75">
-        <v>0.02851941912871012</v>
+        <v>0.02826703557301823</v>
       </c>
       <c r="D75">
-        <v>-0.04405321226800019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03047786905206059</v>
+      </c>
+      <c r="E75">
+        <v>0.05795120225624794</v>
+      </c>
+      <c r="F75">
+        <v>-0.02299141421705186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0795349721583196</v>
+        <v>0.08887585008120688</v>
       </c>
       <c r="C77">
-        <v>0.01663389118689669</v>
+        <v>0.008026076844103773</v>
       </c>
       <c r="D77">
-        <v>-0.0950271659175429</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1125573709689221</v>
+      </c>
+      <c r="E77">
+        <v>0.04152322432419753</v>
+      </c>
+      <c r="F77">
+        <v>-0.03477683230505153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1046470625606164</v>
+        <v>0.100312814679317</v>
       </c>
       <c r="C78">
-        <v>0.04818609102239499</v>
+        <v>0.03932273983403335</v>
       </c>
       <c r="D78">
-        <v>-0.09881764929934433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1135761441602553</v>
+      </c>
+      <c r="E78">
+        <v>0.07435382362476645</v>
+      </c>
+      <c r="F78">
+        <v>-0.05095658869617344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1658482983500772</v>
+        <v>0.1635351036262725</v>
       </c>
       <c r="C79">
-        <v>0.02277096725303984</v>
+        <v>0.02296855078814345</v>
       </c>
       <c r="D79">
-        <v>-0.01813203042109784</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01482838735084267</v>
+      </c>
+      <c r="E79">
+        <v>0.04635985891195972</v>
+      </c>
+      <c r="F79">
+        <v>-0.01257420816197324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08882281862519593</v>
+        <v>0.08195921776495638</v>
       </c>
       <c r="C80">
-        <v>0.002073607214639312</v>
+        <v>-0.001080683921388827</v>
       </c>
       <c r="D80">
-        <v>-0.04962222893547664</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05717252479772478</v>
+      </c>
+      <c r="E80">
+        <v>0.03586876172427342</v>
+      </c>
+      <c r="F80">
+        <v>0.0224244952295721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1213496713467855</v>
+        <v>0.1187649385141252</v>
       </c>
       <c r="C81">
-        <v>0.03023935403070018</v>
+        <v>0.03184767655980099</v>
       </c>
       <c r="D81">
-        <v>-0.04607319133843225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01581750671575434</v>
+      </c>
+      <c r="E81">
+        <v>0.05736547583253739</v>
+      </c>
+      <c r="F81">
+        <v>-0.01872543219769761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1620963190802109</v>
+        <v>0.1651274958109889</v>
       </c>
       <c r="C82">
-        <v>0.02277330204370745</v>
+        <v>0.02484714929162941</v>
       </c>
       <c r="D82">
-        <v>-0.02988839885425754</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004305033092963535</v>
+      </c>
+      <c r="E82">
+        <v>0.02659684873707542</v>
+      </c>
+      <c r="F82">
+        <v>-0.08199655250541227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07049340517662685</v>
+        <v>0.05853870074028635</v>
       </c>
       <c r="C83">
-        <v>0.006632476800867471</v>
+        <v>0.002719877746504941</v>
       </c>
       <c r="D83">
-        <v>-0.02862708102366053</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05079660544467461</v>
+      </c>
+      <c r="E83">
+        <v>0.003039081098159316</v>
+      </c>
+      <c r="F83">
+        <v>0.02959198687373279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06787341457997262</v>
+        <v>0.05949169162532987</v>
       </c>
       <c r="C84">
-        <v>0.01521946784306385</v>
+        <v>0.01124414799075976</v>
       </c>
       <c r="D84">
-        <v>-0.05912851363457231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06301941222252237</v>
+      </c>
+      <c r="E84">
+        <v>0.007258030764450906</v>
+      </c>
+      <c r="F84">
+        <v>-0.005827015146605561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1386826786318753</v>
+        <v>0.1356282075675252</v>
       </c>
       <c r="C85">
-        <v>0.0275118713872355</v>
+        <v>0.02827379108393205</v>
       </c>
       <c r="D85">
-        <v>-0.02366520975781108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009489717005418374</v>
+      </c>
+      <c r="E85">
+        <v>0.03643388224048172</v>
+      </c>
+      <c r="F85">
+        <v>-0.04809283821434463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1006137950614376</v>
+        <v>0.09444485517804015</v>
       </c>
       <c r="C86">
-        <v>-0.001090511242510418</v>
+        <v>-0.005650701748142494</v>
       </c>
       <c r="D86">
-        <v>0.0335869738274838</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04278899879880789</v>
+      </c>
+      <c r="E86">
+        <v>0.2297021265078323</v>
+      </c>
+      <c r="F86">
+        <v>0.9032249350547773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1000356098805462</v>
+        <v>0.09473474755541607</v>
       </c>
       <c r="C87">
-        <v>0.03015901229634452</v>
+        <v>0.01924111309462865</v>
       </c>
       <c r="D87">
-        <v>-0.05284405123242629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0940452005673315</v>
+      </c>
+      <c r="E87">
+        <v>-0.05374565164890184</v>
+      </c>
+      <c r="F87">
+        <v>-0.04536597607795229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05898824815085473</v>
+        <v>0.06046568095818407</v>
       </c>
       <c r="C88">
-        <v>0.006336972341161455</v>
+        <v>0.002094583208325168</v>
       </c>
       <c r="D88">
-        <v>-0.04708533987614984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04983568330210618</v>
+      </c>
+      <c r="E88">
+        <v>0.02427802374169483</v>
+      </c>
+      <c r="F88">
+        <v>-0.01415499780003265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1174814386807468</v>
+        <v>0.1294221764738215</v>
       </c>
       <c r="C89">
-        <v>-0.001924108059762064</v>
+        <v>0.01365355075492418</v>
       </c>
       <c r="D89">
-        <v>0.2768564949998085</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2456831770095248</v>
+      </c>
+      <c r="E89">
+        <v>-0.0891779197778841</v>
+      </c>
+      <c r="F89">
+        <v>0.009549330555170819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1302971012473217</v>
+        <v>0.1514058472052095</v>
       </c>
       <c r="C90">
-        <v>0.01678762266624645</v>
+        <v>0.03436342715923938</v>
       </c>
       <c r="D90">
-        <v>0.2931843580383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.271117078694678</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138646560307823</v>
+      </c>
+      <c r="F90">
+        <v>0.008126568352605045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206006675005991</v>
+        <v>0.1212345016309072</v>
       </c>
       <c r="C91">
-        <v>0.01719106076568887</v>
+        <v>0.01996274225719712</v>
       </c>
       <c r="D91">
-        <v>-0.005010709044021339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01507122934314234</v>
+      </c>
+      <c r="E91">
+        <v>0.05577963057565929</v>
+      </c>
+      <c r="F91">
+        <v>1.717024471442048e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1421001071061957</v>
+        <v>0.1478927556976934</v>
       </c>
       <c r="C92">
-        <v>0.004969938368997333</v>
+        <v>0.0249294429775001</v>
       </c>
       <c r="D92">
-        <v>0.3166868778012083</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911736748578804</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016402486730164</v>
+      </c>
+      <c r="F92">
+        <v>0.01263933937064835</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1359208450329721</v>
+        <v>0.1515149049360855</v>
       </c>
       <c r="C93">
-        <v>0.01213010663907497</v>
+        <v>0.02939399043438878</v>
       </c>
       <c r="D93">
-        <v>0.2769618791378132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2673324791084669</v>
+      </c>
+      <c r="E93">
+        <v>-0.07813426882144751</v>
+      </c>
+      <c r="F93">
+        <v>-0.002638499575251962</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1349445588575724</v>
+        <v>0.1284696176479908</v>
       </c>
       <c r="C94">
-        <v>0.02562092737071155</v>
+        <v>0.0246673570668546</v>
       </c>
       <c r="D94">
-        <v>-0.0606652760496507</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04159054225247839</v>
+      </c>
+      <c r="E94">
+        <v>0.05733494205050111</v>
+      </c>
+      <c r="F94">
+        <v>-0.03643716566572323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1283430216797657</v>
+        <v>0.1267318534160742</v>
       </c>
       <c r="C95">
-        <v>0.01135999439089125</v>
+        <v>0.00321187419403666</v>
       </c>
       <c r="D95">
-        <v>-0.07064099496169282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09468363661690868</v>
+      </c>
+      <c r="E95">
+        <v>0.04988945535032021</v>
+      </c>
+      <c r="F95">
+        <v>0.007560521059194167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1109785406839274</v>
+        <v>0.109383419087412</v>
       </c>
       <c r="C96">
-        <v>-0.9883982122980005</v>
+        <v>-0.987052597569046</v>
       </c>
       <c r="D96">
-        <v>-0.01220664184056625</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05200021135845955</v>
+      </c>
+      <c r="E96">
+        <v>0.05268165799181342</v>
+      </c>
+      <c r="F96">
+        <v>-0.04280241291432374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1917743038698839</v>
+        <v>0.190874318066309</v>
       </c>
       <c r="C97">
-        <v>-0.007470539380003313</v>
+        <v>-0.006984408142842526</v>
       </c>
       <c r="D97">
-        <v>0.03823155757078224</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02003725868930884</v>
+      </c>
+      <c r="E97">
+        <v>0.02251913030585284</v>
+      </c>
+      <c r="F97">
+        <v>0.0969758682757694</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1947894327220381</v>
+        <v>0.2060528068396053</v>
       </c>
       <c r="C98">
-        <v>0.01042937809969648</v>
+        <v>0.007166864695014379</v>
       </c>
       <c r="D98">
-        <v>0.001954654910437147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01287470553378977</v>
+      </c>
+      <c r="E98">
+        <v>-0.07763079460508691</v>
+      </c>
+      <c r="F98">
+        <v>0.09339434409969881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05431915238982252</v>
+        <v>0.05466752638664941</v>
       </c>
       <c r="C99">
-        <v>-0.001961962515720792</v>
+        <v>-0.004551291643493569</v>
       </c>
       <c r="D99">
-        <v>-0.02175133993293824</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03977049754770767</v>
+      </c>
+      <c r="E99">
+        <v>0.02213455268011405</v>
+      </c>
+      <c r="F99">
+        <v>-0.003537352002122433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1315085724444678</v>
+        <v>0.1280303926389162</v>
       </c>
       <c r="C100">
-        <v>-0.02798543674323324</v>
+        <v>-0.05344461405139592</v>
       </c>
       <c r="D100">
-        <v>-0.3619419285626837</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3464643803608105</v>
+      </c>
+      <c r="E100">
+        <v>-0.8855547303234048</v>
+      </c>
+      <c r="F100">
+        <v>0.1582763416290829</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02740211557119209</v>
+        <v>0.02851305972461428</v>
       </c>
       <c r="C101">
-        <v>0.01010771211562181</v>
+        <v>0.008687594534460457</v>
       </c>
       <c r="D101">
-        <v>-0.01862696305912743</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03080032118130128</v>
+      </c>
+      <c r="E101">
+        <v>0.01294480221943248</v>
+      </c>
+      <c r="F101">
+        <v>0.01416710024469055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
